--- a/BackTest/2020-01-24 BackTest BTG.xlsx
+++ b/BackTest/2020-01-24 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-439.1721933599998</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-47.41309335999976</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58.50479335999977</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-36.08249335999977</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-142.9790933599998</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-150.1920933599998</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-121.1435933599998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-168.4829933599998</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-181.6847933599998</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-170.4747933599998</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-191.0442933599998</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-317.3918933599998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-316.8234933599998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-316.8234933599998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-316.8234933599998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-494.1503933599998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-474.8905933599998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-474.8905933599998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-394.1413933599998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-398.6250933599998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-825.4735933599998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1142.84679336</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1142.84679336</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1133.01089336</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1273.01089336</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1265.70029336</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1496.17729336</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1495.17729336</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1495.17729336</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1575.34859336</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1560.20059336</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1572.63289336</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1584.96519336</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1584.96519336</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1574.96519336</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3108.52639336</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2890.84889336</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4249.89389336</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4210.05749336</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4208.53679336</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4201.05669336</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4201.05669336</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4222.47169336</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4222.47169336</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3952.64679336</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3952.64679336</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3930.55779336</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-4313.55779336</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4313.55779336</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4250.879118409999</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4266.95131841</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4320.05621841</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4383.08061841</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4378.54861841</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4381.57061841</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4381.52061841</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4335.40091841</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3424.785018409999</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3481.08501841</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2907.271718409999</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2912.271718409999</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3236.671718409999</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3873.196618409999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4198.03361841</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4405.40011841</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4270.846018409999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2730.385118409999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2741.550718409999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2571.747318409999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2560.36761841</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2638.99761841</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3066.91721841</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3072.91721841</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2884.44389023</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2714.44389023</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2411.66073669</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2547.05863669</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2516.45063669</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2268.95063669</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2314.12803669</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2480.254736689999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2978.984736689999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2977.414736689999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3023.111436689999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3010.416036689999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3486.046336689999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3459.098236689999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3477.108836689999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3415.09183669</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3449.634736689999</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-3493.258836689999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3493.258836689999</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3520.880836689999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3827.07473669</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-3927.15973669</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-5026.607936689999</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-6041.31033669</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-6051.31033669</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-6051.260336689999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-5978.316036689999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-6165.299236689999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-6165.299236689999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-6135.508036689999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-6135.508036689999</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-6227.909236689999</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-6227.859236689999</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-6229.217136689999</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-6229.217136689999</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5863.24963669</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-5868.470336689999</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-5868.420336689999</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-5868.420336689999</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5902.686536689999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-6202.140236689999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-6193.640236689999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-6186.540236689999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-6461.768636689999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-7477.065336689999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-7903.460436689998</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-9890.870136689999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-10984.58213669</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-10984.58213669</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-10966.58213669</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-9020.416836689998</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-9020.416836689998</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-9046.748336689998</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-8459.351036689997</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-8483.675636689997</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-8501.495236689998</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-8377.899936689997</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-8377.899936689997</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-8470.541336689997</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-8470.541336689997</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-8351.979236689998</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-8471.484436689998</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-8533.223936689998</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-8652.940636689998</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-9567.272336689999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-11022.99763669</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10335.53363669</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-14654.95085937</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-13469.47605937</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-13469.47605937</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-13469.47605937</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-13514.15005937</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-13743.31555937</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-13694.93645937</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-13713.47035937</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13634.91035937</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13490.53539432</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13490.53539432</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-13490.53539432</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-13487.47339432</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-13789.41029432</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-13789.36029432</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-13939.36029432</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-16016.91019432</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-19356.71539432</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-19356.71539432</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-19365.65169432</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-18866.04749432</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-17562.84593643</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-17545.36393643</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-17619.76023643</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-18646.66936524</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-18548.11346524</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-18941.45616524</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-18941.45616524</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-18798.55226524</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-19247.17336524</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-19449.58036524</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-19412.64036524</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-19715.37116524</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-19715.37116524</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-19655.51256524</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-19568.79256524</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-19594.96536524</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-20046.40878182</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-26128.90311587001</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22297,10 +22297,14 @@
         <v>-26132.43993322001</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>11450</v>
+      </c>
+      <c r="J664" t="n">
+        <v>11450</v>
+      </c>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
@@ -22333,8 +22337,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>11450</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22366,8 +22376,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>11450</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22495,7 +22511,7 @@
         <v>-25293.75380755001</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22544,7 @@
         <v>-25198.04270824001</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22577,7 @@
         <v>-25247.31180824001</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22610,7 @@
         <v>-25234.91215636001</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22643,7 @@
         <v>-25226.91215636001</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22858,7 +22874,7 @@
         <v>-25261.38862816001</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22907,7 @@
         <v>-25261.38862816001</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22940,7 @@
         <v>-25261.38862816001</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22973,7 @@
         <v>-25585.38056788001</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +23006,7 @@
         <v>-25741.76049949001</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23039,7 @@
         <v>-25750.18489949001</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23072,7 @@
         <v>-25755.18489949001</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23105,7 @@
         <v>-26046.43080293001</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23138,7 @@
         <v>-26044.31500293001</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23171,7 @@
         <v>-26046.02580293001</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23204,7 @@
         <v>-26038.53530467001</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23237,7 @@
         <v>-26091.02920467001</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23270,7 @@
         <v>-26091.02920467001</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23303,7 @@
         <v>-26186.82946463001</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23386,11 +23402,17 @@
         <v>-26141.96055291001</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>11510</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +23441,17 @@
         <v>-25789.15426463001</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>11510</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23480,17 @@
         <v>-25763.70268191001</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>11530</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23519,17 @@
         <v>-25763.70268191001</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>11560</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +23562,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +23599,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +23636,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +23673,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +23710,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +23747,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +23784,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +23821,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +23858,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +23895,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23848,11 +23928,17 @@
         <v>-25923.40618312001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>11570</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +23971,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +24008,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24045,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24082,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24119,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24156,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24193,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24230,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24267,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24304,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24341,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24378,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24415,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24452,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24489,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +24526,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +24563,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +24600,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +24637,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +24674,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +24711,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +24748,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +24785,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +24822,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24855,17 @@
         <v>-27374.63018312001</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>11450</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24894,17 @@
         <v>-27380.85098312001</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>11500</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +24933,17 @@
         <v>-27316.61028312002</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>11450</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24972,17 @@
         <v>-27279.46908312002</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>11490</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +25011,17 @@
         <v>-26932.13468165002</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>11510</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24838,11 +25050,17 @@
         <v>-26936.13468165002</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>11530</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +25089,17 @@
         <v>-26936.13468165002</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>11520</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24904,11 +25128,17 @@
         <v>-26939.13468165002</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>11520</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24937,11 +25167,17 @@
         <v>-26939.13468165002</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>11510</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +25206,17 @@
         <v>-26941.13468165002</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>11510</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25003,11 +25245,17 @@
         <v>-26941.13468165002</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>11500</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +25284,17 @@
         <v>-26976.13468165002</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>11500</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25069,11 +25323,17 @@
         <v>-27014.88508165002</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>11480</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25102,11 +25362,17 @@
         <v>-27014.28508165002</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>11450</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25135,11 +25401,17 @@
         <v>-27020.99028165002</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>11460</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25168,11 +25440,17 @@
         <v>-27020.53008165002</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>11440</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +25479,17 @@
         <v>-27020.53008165002</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11450</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25234,11 +25518,17 @@
         <v>-26827.25198165002</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>11450</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25557,17 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>11480</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25596,17 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>11430</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25635,17 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>11430</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25674,17 @@
         <v>-27216.53238165002</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>11430</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25713,17 @@
         <v>-27216.53238165002</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>11400</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25432,11 +25752,17 @@
         <v>-27412.57428165002</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>11400</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25791,17 @@
         <v>-27362.56738165002</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>11390</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,7 +25830,7 @@
         <v>-27362.56738165002</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>11400</v>
@@ -25506,7 +25838,7 @@
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L761" t="n">
@@ -25537,7 +25869,7 @@
         <v>-27329.56108165002</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>11400</v>
@@ -25576,7 +25908,7 @@
         <v>-28223.04728165002</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>11430</v>
@@ -25615,7 +25947,7 @@
         <v>-28351.49998165002</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>11380</v>
@@ -25654,7 +25986,7 @@
         <v>-28351.49998165002</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>11370</v>
@@ -25693,7 +26025,7 @@
         <v>-28339.24888165002</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>11370</v>
@@ -25732,7 +26064,7 @@
         <v>-28339.24888165002</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>11420</v>
@@ -25771,7 +26103,7 @@
         <v>-28338.97698165002</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>11420</v>
@@ -25810,7 +26142,7 @@
         <v>-28802.19888165002</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>11430</v>
@@ -25849,7 +26181,7 @@
         <v>-28802.14888165002</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>11380</v>
@@ -25888,7 +26220,7 @@
         <v>-28905.70208165002</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>11460</v>
@@ -25927,7 +26259,7 @@
         <v>-28805.65208165002</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I772" t="n">
         <v>11450</v>
@@ -25966,7 +26298,7 @@
         <v>-28798.09068165002</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I773" t="n">
         <v>11460</v>
@@ -26005,7 +26337,7 @@
         <v>-28329.67918165002</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>11480</v>
@@ -26044,9 +26376,11 @@
         <v>-28192.06208165002</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>11490</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26081,9 +26415,11 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>11500</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26118,9 +26454,11 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>11430</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26155,9 +26493,11 @@
         <v>-28471.19058165002</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>11430</v>
+      </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -26192,9 +26532,11 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>11420</v>
+      </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -26229,9 +26571,11 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>11430</v>
+      </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26266,9 +26610,11 @@
         <v>-28455.92088165002</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>11430</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26303,9 +26649,11 @@
         <v>-28707.94658165002</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>11460</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26340,9 +26688,11 @@
         <v>-28508.13738165002</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>11430</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26377,9 +26727,11 @@
         <v>-28174.84308165002</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>11440</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26414,9 +26766,11 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>11450</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26451,9 +26805,11 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>11500</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26488,9 +26844,11 @@
         <v>-28015.36598165002</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>11500</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26525,9 +26883,11 @@
         <v>-27579.50308165002</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>11460</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26562,9 +26922,11 @@
         <v>-27582.23128165002</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>11480</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26599,9 +26961,11 @@
         <v>-27582.23128165002</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>11470</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26614,6 +26978,6 @@
       <c r="M790" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTG.xlsx
+++ b/BackTest/2020-01-24 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-121.1435933599998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1496.17729336</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1495.17729336</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1495.17729336</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1560.20059336</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1572.63289336</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1584.96519336</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1574.96519336</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3108.52639336</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2890.84889336</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4210.05749336</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4208.53679336</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4201.05669336</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4222.47169336</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4222.47169336</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-4250.879118409999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4287.06231841</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4266.95131841</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4320.05621841</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4383.08061841</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4378.54861841</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4381.57061841</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4381.52061841</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4335.40091841</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3236.671718409999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3873.196618409999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4198.03361841</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4405.40011841</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4334.15741841</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4378.64561841</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4270.846018409999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2730.385118409999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2741.550718409999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2516.45063669</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2268.95063669</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2314.12803669</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2480.254736689999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2978.984736689999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2977.414736689999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3023.111436689999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3010.416036689999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3486.046336689999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-3459.138836689999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3459.098236689999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3477.108836689999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3415.09183669</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3449.634736689999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-3493.258836689999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3493.258836689999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3520.880836689999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3827.07473669</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-3931.00773669</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-3927.15973669</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-6041.31033669</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-6051.31033669</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-6051.260336689999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-5978.316036689999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-6165.299236689999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-6165.299236689999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-6135.508036689999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-6135.508036689999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-6227.909236689999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-6227.859236689999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-6229.217136689999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-6229.217136689999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5863.24963669</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-5868.470336689999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-5868.420336689999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-5868.420336689999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5902.686536689999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-6202.140236689999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-6193.640236689999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-6186.540236689999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-6461.768636689999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-6918.562736689999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-7477.065336689999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-7903.460436689998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-9890.870136689999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-10984.58213669</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-10984.58213669</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-10966.58213669</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-16871.05839432</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-16884.99989432</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-16839.16789432</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-18223.84739432</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-18154.72849432</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-18158.66599432</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-17903.17599432</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-17866.34189432</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-17877.43219432</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-17877.94219432</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-18077.94219432</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-17992.98459431999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-18010.20269431999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-18924.83679432</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-19411.45318032</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-17835.43976711</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-17828.43976711</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-17902.94716711</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-17732.94716711</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-17738.06956711</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-17768.13626711</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-17715.63626711</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-17859.25206711</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-17860.94896711</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-17289.70758658</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-16920.61568658</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-16600.77017258</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-16479.90267258</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-16511.63767258</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-16409.13767258</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-16546.14807258</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-16005.97777258</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-15920.97777258</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-15925.97777258</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-16013.11597258</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-16071.19557257999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-15944.96167258</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-15929.96167258</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-15792.59467257999</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-16120.85807257999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-16123.85807257999</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-16113.85807257999</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-16112.85807257999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-16082.81797257999</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-16094.81797257999</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-16165.12337257999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-16925.22837257999</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-16756.60467257999</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-16879.16417257999</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-16498.57747257999</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-16593.57747257999</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-16263.80967257999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-16520.00647257999</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-16274.00077257999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-16157.78707257999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-16162.78707257999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-16810.36546975999</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-16790.01103642999</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-16793.49003642999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-17167.84553642999</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22297,14 +22297,10 @@
         <v>-26132.43993322001</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J664" t="n">
-        <v>11450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
@@ -22337,14 +22333,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>11450</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22376,14 +22366,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>11450</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23402,2133 +23386,1871 @@
         <v>-26141.96055291001</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>11480</v>
+      </c>
+      <c r="C698" t="n">
+        <v>11530</v>
+      </c>
+      <c r="D698" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E698" t="n">
+        <v>11480</v>
+      </c>
+      <c r="F698" t="n">
+        <v>352.80628828</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-25789.15426463001</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C699" t="n">
+        <v>11560</v>
+      </c>
+      <c r="D699" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E699" t="n">
+        <v>11560</v>
+      </c>
+      <c r="F699" t="n">
+        <v>25.45158272</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-25763.70268191001</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>11550</v>
+      </c>
+      <c r="C700" t="n">
+        <v>11560</v>
+      </c>
+      <c r="D700" t="n">
+        <v>11560</v>
+      </c>
+      <c r="E700" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F700" t="n">
+        <v>3.99719264</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-25763.70268191001</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>11560</v>
+      </c>
+      <c r="C701" t="n">
+        <v>11580</v>
+      </c>
+      <c r="D701" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E701" t="n">
+        <v>11560</v>
+      </c>
+      <c r="F701" t="n">
+        <v>133.80460443</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-25629.89807748001</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C702" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D702" t="n">
+        <v>11610</v>
+      </c>
+      <c r="E702" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F702" t="n">
+        <v>76.27079523</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-25553.62728225001</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C703" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D703" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E703" t="n">
+        <v>11570</v>
+      </c>
+      <c r="F703" t="n">
+        <v>128.5853</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-25682.21258225001</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C704" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D704" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E704" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F704" t="n">
+        <v>7</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-25675.21258225001</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C705" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D705" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E705" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F705" t="n">
+        <v>170</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-25845.21258225001</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C706" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D706" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E706" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F706" t="n">
+        <v>377.1391</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-25845.21258225001</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>11580</v>
+      </c>
+      <c r="C707" t="n">
+        <v>11580</v>
+      </c>
+      <c r="D707" t="n">
+        <v>11580</v>
+      </c>
+      <c r="E707" t="n">
+        <v>11580</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.7967</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-25846.00928225001</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>11550</v>
+      </c>
+      <c r="C708" t="n">
+        <v>11550</v>
+      </c>
+      <c r="D708" t="n">
+        <v>11550</v>
+      </c>
+      <c r="E708" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F708" t="n">
+        <v>195.1235</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-26041.13278225001</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>11570</v>
+      </c>
+      <c r="C709" t="n">
+        <v>11570</v>
+      </c>
+      <c r="D709" t="n">
+        <v>11570</v>
+      </c>
+      <c r="E709" t="n">
+        <v>11560</v>
+      </c>
+      <c r="F709" t="n">
+        <v>88.99299913</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-25952.13978312001</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>11570</v>
+      </c>
+      <c r="C710" t="n">
+        <v>11570</v>
+      </c>
+      <c r="D710" t="n">
+        <v>11570</v>
+      </c>
+      <c r="E710" t="n">
+        <v>11570</v>
+      </c>
+      <c r="F710" t="n">
+        <v>106.00700087</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-25952.13978312001</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C711" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D711" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E711" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F711" t="n">
+        <v>28.7336</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-25923.40618312001</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C712" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D712" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E712" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F712" t="n">
+        <v>4</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-25923.40618312001</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C713" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D713" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E713" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F713" t="n">
+        <v>57.7587</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-25981.16488312001</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C714" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D714" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E714" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F714" t="n">
+        <v>45.2413</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-25981.16488312001</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C715" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D715" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E715" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F715" t="n">
+        <v>79.4151</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-25901.74978312001</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C716" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D716" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E716" t="n">
+        <v>11560</v>
+      </c>
+      <c r="F716" t="n">
+        <v>38.46453922</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-25901.74978312001</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>11560</v>
+      </c>
+      <c r="C717" t="n">
+        <v>11540</v>
+      </c>
+      <c r="D717" t="n">
+        <v>11570</v>
+      </c>
+      <c r="E717" t="n">
+        <v>11530</v>
+      </c>
+      <c r="F717" t="n">
+        <v>276.1938</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-26177.94358312001</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C718" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D718" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E718" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F718" t="n">
+        <v>26.2224</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-26151.72118312001</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C719" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D719" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E719" t="n">
+        <v>11550</v>
+      </c>
+      <c r="F719" t="n">
+        <v>37.9198506</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-26151.72118312001</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C720" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D720" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E720" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F720" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-26099.12118312001</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C721" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D721" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E721" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-26099.12118312001</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C722" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D722" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E722" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F722" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-26099.12118312001</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C723" t="n">
+        <v>11590</v>
+      </c>
+      <c r="D723" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E723" t="n">
+        <v>11590</v>
+      </c>
+      <c r="F723" t="n">
+        <v>133.9114</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-26233.03258312001</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C724" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D724" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E724" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F724" t="n">
+        <v>178.4427</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-26054.58988312001</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C725" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D725" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E725" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F725" t="n">
+        <v>8</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-26054.58988312001</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C726" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D726" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E726" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F726" t="n">
+        <v>53</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-26054.58988312001</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C727" t="n">
+        <v>11600</v>
+      </c>
+      <c r="D727" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E727" t="n">
+        <v>11600</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-26054.58988312001</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>11590</v>
+      </c>
+      <c r="C728" t="n">
+        <v>11530</v>
+      </c>
+      <c r="D728" t="n">
+        <v>11590</v>
+      </c>
+      <c r="E728" t="n">
+        <v>11530</v>
+      </c>
+      <c r="F728" t="n">
+        <v>220.4665</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-26275.05638312001</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>11520</v>
+      </c>
+      <c r="C729" t="n">
+        <v>11520</v>
+      </c>
+      <c r="D729" t="n">
+        <v>11520</v>
+      </c>
+      <c r="E729" t="n">
+        <v>11520</v>
+      </c>
+      <c r="F729" t="n">
+        <v>199.0921</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-26474.14848312001</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>11530</v>
+      </c>
+      <c r="C730" t="n">
         <v>11510</v>
       </c>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
+      <c r="D730" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E730" t="n">
+        <v>11510</v>
+      </c>
+      <c r="F730" t="n">
+        <v>149.3191</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-26623.46758312001</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>11580</v>
+      </c>
+      <c r="C731" t="n">
+        <v>11580</v>
+      </c>
+      <c r="D731" t="n">
+        <v>11580</v>
+      </c>
+      <c r="E731" t="n">
+        <v>11580</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-26623.41758312002</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>11530</v>
+      </c>
+      <c r="C732" t="n">
+        <v>11510</v>
+      </c>
+      <c r="D732" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E732" t="n">
+        <v>11510</v>
+      </c>
+      <c r="F732" t="n">
+        <v>157.1197</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-26780.53728312001</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C733" t="n">
+        <v>11500</v>
+      </c>
+      <c r="D733" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E733" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F733" t="n">
+        <v>149.0328</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-26929.57008312002</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>11480</v>
+      </c>
+      <c r="C734" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D734" t="n">
+        <v>11480</v>
+      </c>
+      <c r="E734" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F734" t="n">
+        <v>447.9573</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-27377.52738312001</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C735" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D735" t="n">
+        <v>11450</v>
+      </c>
+      <c r="E735" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F735" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-27377.52738312001</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C736" t="n">
+        <v>11500</v>
+      </c>
+      <c r="D736" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E736" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F736" t="n">
+        <v>2.8972</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-27374.63018312001</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>11490</v>
+      </c>
+      <c r="C737" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D737" t="n">
+        <v>11490</v>
+      </c>
+      <c r="E737" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F737" t="n">
+        <v>6.2208</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-27380.85098312001</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C738" t="n">
+        <v>11490</v>
+      </c>
+      <c r="D738" t="n">
+        <v>11490</v>
+      </c>
+      <c r="E738" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F738" t="n">
+        <v>64.2407</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-27316.61028312002</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>11490</v>
+      </c>
+      <c r="C739" t="n">
+        <v>11510</v>
+      </c>
+      <c r="D739" t="n">
+        <v>11510</v>
+      </c>
+      <c r="E739" t="n">
+        <v>11490</v>
+      </c>
+      <c r="F739" t="n">
+        <v>37.1412</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-27279.46908312002</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>11510</v>
+      </c>
+      <c r="C740" t="n">
+        <v>11530</v>
+      </c>
+      <c r="D740" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E740" t="n">
+        <v>11480</v>
+      </c>
+      <c r="F740" t="n">
+        <v>347.33440147</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-26932.13468165002</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>11530</v>
+      </c>
+      <c r="C741" t="n">
+        <v>11520</v>
+      </c>
+      <c r="D741" t="n">
+        <v>11530</v>
+      </c>
+      <c r="E741" t="n">
+        <v>11520</v>
+      </c>
+      <c r="F741" t="n">
+        <v>4</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-26936.13468165002</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>11520</v>
+      </c>
+      <c r="C742" t="n">
+        <v>11520</v>
+      </c>
+      <c r="D742" t="n">
+        <v>11520</v>
+      </c>
+      <c r="E742" t="n">
+        <v>11520</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-26936.13468165002</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>11510</v>
+      </c>
+      <c r="C743" t="n">
+        <v>11510</v>
+      </c>
+      <c r="D743" t="n">
+        <v>11510</v>
+      </c>
+      <c r="E743" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F743" t="n">
+        <v>3</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-26939.13468165002</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>11510</v>
+      </c>
+      <c r="C744" t="n">
+        <v>11510</v>
+      </c>
+      <c r="D744" t="n">
+        <v>11510</v>
+      </c>
+      <c r="E744" t="n">
+        <v>11510</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-26939.13468165002</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C745" t="n">
+        <v>11500</v>
+      </c>
+      <c r="D745" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E745" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F745" t="n">
+        <v>2</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-26941.13468165002</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>11500</v>
+      </c>
+      <c r="C746" t="n">
+        <v>11500</v>
+      </c>
+      <c r="D746" t="n">
+        <v>11500</v>
+      </c>
+      <c r="E746" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F746" t="n">
+        <v>226.5256</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-26941.13468165002</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>11490</v>
+      </c>
+      <c r="C747" t="n">
+        <v>11480</v>
+      </c>
+      <c r="D747" t="n">
+        <v>11490</v>
+      </c>
+      <c r="E747" t="n">
+        <v>11480</v>
+      </c>
+      <c r="F747" t="n">
+        <v>35</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-26976.13468165002</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>11480</v>
+      </c>
+      <c r="C748" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D748" t="n">
+        <v>11480</v>
+      </c>
+      <c r="E748" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F748" t="n">
+        <v>38.7504</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-27014.88508165002</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>11460</v>
+      </c>
+      <c r="C749" t="n">
+        <v>11460</v>
+      </c>
+      <c r="D749" t="n">
+        <v>11460</v>
+      </c>
+      <c r="E749" t="n">
+        <v>11460</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-27014.28508165002</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>11440</v>
+      </c>
+      <c r="C750" t="n">
+        <v>11440</v>
+      </c>
+      <c r="D750" t="n">
+        <v>11440</v>
+      </c>
+      <c r="E750" t="n">
+        <v>11440</v>
+      </c>
+      <c r="F750" t="n">
+        <v>6.7052</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-27020.99028165002</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C751" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D751" t="n">
+        <v>11450</v>
+      </c>
+      <c r="E751" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F751" t="n">
+        <v>0.4602</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-27020.53008165002</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="C752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="D752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="E752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="F752" t="n">
+        <v>27.6998</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-27020.53008165002</v>
+      </c>
+      <c r="H752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="J752" t="n">
+        <v>11450</v>
+      </c>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>11480</v>
+      </c>
+      <c r="C753" t="n">
+        <v>11480</v>
+      </c>
+      <c r="D753" t="n">
+        <v>11480</v>
+      </c>
+      <c r="E753" t="n">
+        <v>11440</v>
+      </c>
+      <c r="F753" t="n">
+        <v>193.2781</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-26827.25198165002</v>
+      </c>
+      <c r="H753" t="n">
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>11450</v>
+      </c>
+      <c r="J753" t="n">
+        <v>11450</v>
+      </c>
+      <c r="K753" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>11480</v>
-      </c>
-      <c r="C698" t="n">
-        <v>11530</v>
-      </c>
-      <c r="D698" t="n">
-        <v>11530</v>
-      </c>
-      <c r="E698" t="n">
-        <v>11480</v>
-      </c>
-      <c r="F698" t="n">
-        <v>352.80628828</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-25789.15426463001</v>
-      </c>
-      <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>11510</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C699" t="n">
-        <v>11560</v>
-      </c>
-      <c r="D699" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E699" t="n">
-        <v>11560</v>
-      </c>
-      <c r="F699" t="n">
-        <v>25.45158272</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-25763.70268191001</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>11530</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>11550</v>
-      </c>
-      <c r="C700" t="n">
-        <v>11560</v>
-      </c>
-      <c r="D700" t="n">
-        <v>11560</v>
-      </c>
-      <c r="E700" t="n">
-        <v>11550</v>
-      </c>
-      <c r="F700" t="n">
-        <v>3.99719264</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-25763.70268191001</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>11560</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>11560</v>
-      </c>
-      <c r="C701" t="n">
-        <v>11580</v>
-      </c>
-      <c r="D701" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E701" t="n">
-        <v>11560</v>
-      </c>
-      <c r="F701" t="n">
-        <v>133.80460443</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-25629.89807748001</v>
-      </c>
-      <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C702" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D702" t="n">
-        <v>11610</v>
-      </c>
-      <c r="E702" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F702" t="n">
-        <v>76.27079523</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-25553.62728225001</v>
-      </c>
-      <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C703" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D703" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E703" t="n">
-        <v>11570</v>
-      </c>
-      <c r="F703" t="n">
-        <v>128.5853</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-25682.21258225001</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C704" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D704" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E704" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F704" t="n">
-        <v>7</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-25675.21258225001</v>
-      </c>
-      <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C705" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D705" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E705" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F705" t="n">
-        <v>170</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-25845.21258225001</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C706" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D706" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E706" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F706" t="n">
-        <v>377.1391</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-25845.21258225001</v>
-      </c>
-      <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>11580</v>
-      </c>
-      <c r="C707" t="n">
-        <v>11580</v>
-      </c>
-      <c r="D707" t="n">
-        <v>11580</v>
-      </c>
-      <c r="E707" t="n">
-        <v>11580</v>
-      </c>
-      <c r="F707" t="n">
-        <v>0.7967</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-25846.00928225001</v>
-      </c>
-      <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>11550</v>
-      </c>
-      <c r="C708" t="n">
-        <v>11550</v>
-      </c>
-      <c r="D708" t="n">
-        <v>11550</v>
-      </c>
-      <c r="E708" t="n">
-        <v>11550</v>
-      </c>
-      <c r="F708" t="n">
-        <v>195.1235</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-26041.13278225001</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>11570</v>
-      </c>
-      <c r="C709" t="n">
-        <v>11570</v>
-      </c>
-      <c r="D709" t="n">
-        <v>11570</v>
-      </c>
-      <c r="E709" t="n">
-        <v>11560</v>
-      </c>
-      <c r="F709" t="n">
-        <v>88.99299913</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-25952.13978312001</v>
-      </c>
-      <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>11570</v>
-      </c>
-      <c r="C710" t="n">
-        <v>11570</v>
-      </c>
-      <c r="D710" t="n">
-        <v>11570</v>
-      </c>
-      <c r="E710" t="n">
-        <v>11570</v>
-      </c>
-      <c r="F710" t="n">
-        <v>106.00700087</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-25952.13978312001</v>
-      </c>
-      <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C711" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D711" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E711" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F711" t="n">
-        <v>28.7336</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-25923.40618312001</v>
-      </c>
-      <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>11570</v>
-      </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C712" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D712" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E712" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F712" t="n">
-        <v>4</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-25923.40618312001</v>
-      </c>
-      <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C713" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D713" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E713" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F713" t="n">
-        <v>57.7587</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-25981.16488312001</v>
-      </c>
-      <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C714" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D714" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E714" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F714" t="n">
-        <v>45.2413</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-25981.16488312001</v>
-      </c>
-      <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C715" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D715" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E715" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F715" t="n">
-        <v>79.4151</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-25901.74978312001</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C716" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D716" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E716" t="n">
-        <v>11560</v>
-      </c>
-      <c r="F716" t="n">
-        <v>38.46453922</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-25901.74978312001</v>
-      </c>
-      <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>11560</v>
-      </c>
-      <c r="C717" t="n">
-        <v>11540</v>
-      </c>
-      <c r="D717" t="n">
-        <v>11570</v>
-      </c>
-      <c r="E717" t="n">
-        <v>11530</v>
-      </c>
-      <c r="F717" t="n">
-        <v>276.1938</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-26177.94358312001</v>
-      </c>
-      <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C718" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D718" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E718" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F718" t="n">
-        <v>26.2224</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-26151.72118312001</v>
-      </c>
-      <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C719" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D719" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E719" t="n">
-        <v>11550</v>
-      </c>
-      <c r="F719" t="n">
-        <v>37.9198506</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-26151.72118312001</v>
-      </c>
-      <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C720" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D720" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E720" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F720" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-26099.12118312001</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C721" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D721" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E721" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F721" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-26099.12118312001</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C722" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D722" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E722" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F722" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-26099.12118312001</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C723" t="n">
-        <v>11590</v>
-      </c>
-      <c r="D723" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E723" t="n">
-        <v>11590</v>
-      </c>
-      <c r="F723" t="n">
-        <v>133.9114</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-26233.03258312001</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C724" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D724" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E724" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F724" t="n">
-        <v>178.4427</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-26054.58988312001</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C725" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D725" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E725" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F725" t="n">
-        <v>8</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-26054.58988312001</v>
-      </c>
-      <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C726" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D726" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E726" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F726" t="n">
-        <v>53</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-26054.58988312001</v>
-      </c>
-      <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C727" t="n">
-        <v>11600</v>
-      </c>
-      <c r="D727" t="n">
-        <v>11600</v>
-      </c>
-      <c r="E727" t="n">
-        <v>11600</v>
-      </c>
-      <c r="F727" t="n">
-        <v>1</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-26054.58988312001</v>
-      </c>
-      <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C728" t="n">
-        <v>11530</v>
-      </c>
-      <c r="D728" t="n">
-        <v>11590</v>
-      </c>
-      <c r="E728" t="n">
-        <v>11530</v>
-      </c>
-      <c r="F728" t="n">
-        <v>220.4665</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-26275.05638312001</v>
-      </c>
-      <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>11520</v>
-      </c>
-      <c r="C729" t="n">
-        <v>11520</v>
-      </c>
-      <c r="D729" t="n">
-        <v>11520</v>
-      </c>
-      <c r="E729" t="n">
-        <v>11520</v>
-      </c>
-      <c r="F729" t="n">
-        <v>199.0921</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-26474.14848312001</v>
-      </c>
-      <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>11530</v>
-      </c>
-      <c r="C730" t="n">
-        <v>11510</v>
-      </c>
-      <c r="D730" t="n">
-        <v>11530</v>
-      </c>
-      <c r="E730" t="n">
-        <v>11510</v>
-      </c>
-      <c r="F730" t="n">
-        <v>149.3191</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-26623.46758312001</v>
-      </c>
-      <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>11580</v>
-      </c>
-      <c r="C731" t="n">
-        <v>11580</v>
-      </c>
-      <c r="D731" t="n">
-        <v>11580</v>
-      </c>
-      <c r="E731" t="n">
-        <v>11580</v>
-      </c>
-      <c r="F731" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-26623.41758312002</v>
-      </c>
-      <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>11530</v>
-      </c>
-      <c r="C732" t="n">
-        <v>11510</v>
-      </c>
-      <c r="D732" t="n">
-        <v>11530</v>
-      </c>
-      <c r="E732" t="n">
-        <v>11510</v>
-      </c>
-      <c r="F732" t="n">
-        <v>157.1197</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-26780.53728312001</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C733" t="n">
-        <v>11500</v>
-      </c>
-      <c r="D733" t="n">
-        <v>11500</v>
-      </c>
-      <c r="E733" t="n">
-        <v>11500</v>
-      </c>
-      <c r="F733" t="n">
-        <v>149.0328</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-26929.57008312002</v>
-      </c>
-      <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>11480</v>
-      </c>
-      <c r="C734" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D734" t="n">
-        <v>11480</v>
-      </c>
-      <c r="E734" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F734" t="n">
-        <v>447.9573</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-27377.52738312001</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>11450</v>
-      </c>
-      <c r="C735" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D735" t="n">
-        <v>11450</v>
-      </c>
-      <c r="E735" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F735" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-27377.52738312001</v>
-      </c>
-      <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C736" t="n">
-        <v>11500</v>
-      </c>
-      <c r="D736" t="n">
-        <v>11500</v>
-      </c>
-      <c r="E736" t="n">
-        <v>11500</v>
-      </c>
-      <c r="F736" t="n">
-        <v>2.8972</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-27374.63018312001</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>11490</v>
-      </c>
-      <c r="C737" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D737" t="n">
-        <v>11490</v>
-      </c>
-      <c r="E737" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F737" t="n">
-        <v>6.2208</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-27380.85098312001</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>11450</v>
-      </c>
-      <c r="C738" t="n">
-        <v>11490</v>
-      </c>
-      <c r="D738" t="n">
-        <v>11490</v>
-      </c>
-      <c r="E738" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F738" t="n">
-        <v>64.2407</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-27316.61028312002</v>
-      </c>
-      <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>11490</v>
-      </c>
-      <c r="C739" t="n">
-        <v>11510</v>
-      </c>
-      <c r="D739" t="n">
-        <v>11510</v>
-      </c>
-      <c r="E739" t="n">
-        <v>11490</v>
-      </c>
-      <c r="F739" t="n">
-        <v>37.1412</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-27279.46908312002</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>11490</v>
-      </c>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>11510</v>
-      </c>
-      <c r="C740" t="n">
-        <v>11530</v>
-      </c>
-      <c r="D740" t="n">
-        <v>11530</v>
-      </c>
-      <c r="E740" t="n">
-        <v>11480</v>
-      </c>
-      <c r="F740" t="n">
-        <v>347.33440147</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-26932.13468165002</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>11510</v>
-      </c>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>11530</v>
-      </c>
-      <c r="C741" t="n">
-        <v>11520</v>
-      </c>
-      <c r="D741" t="n">
-        <v>11530</v>
-      </c>
-      <c r="E741" t="n">
-        <v>11520</v>
-      </c>
-      <c r="F741" t="n">
-        <v>4</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-26936.13468165002</v>
-      </c>
-      <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>11530</v>
-      </c>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>11520</v>
-      </c>
-      <c r="C742" t="n">
-        <v>11520</v>
-      </c>
-      <c r="D742" t="n">
-        <v>11520</v>
-      </c>
-      <c r="E742" t="n">
-        <v>11520</v>
-      </c>
-      <c r="F742" t="n">
-        <v>1</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-26936.13468165002</v>
-      </c>
-      <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>11520</v>
-      </c>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>11510</v>
-      </c>
-      <c r="C743" t="n">
-        <v>11510</v>
-      </c>
-      <c r="D743" t="n">
-        <v>11510</v>
-      </c>
-      <c r="E743" t="n">
-        <v>11500</v>
-      </c>
-      <c r="F743" t="n">
-        <v>3</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-26939.13468165002</v>
-      </c>
-      <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>11520</v>
-      </c>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>11510</v>
-      </c>
-      <c r="C744" t="n">
-        <v>11510</v>
-      </c>
-      <c r="D744" t="n">
-        <v>11510</v>
-      </c>
-      <c r="E744" t="n">
-        <v>11510</v>
-      </c>
-      <c r="F744" t="n">
-        <v>1</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-26939.13468165002</v>
-      </c>
-      <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>11510</v>
-      </c>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C745" t="n">
-        <v>11500</v>
-      </c>
-      <c r="D745" t="n">
-        <v>11500</v>
-      </c>
-      <c r="E745" t="n">
-        <v>11500</v>
-      </c>
-      <c r="F745" t="n">
-        <v>2</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-26941.13468165002</v>
-      </c>
-      <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>11510</v>
-      </c>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>11500</v>
-      </c>
-      <c r="C746" t="n">
-        <v>11500</v>
-      </c>
-      <c r="D746" t="n">
-        <v>11500</v>
-      </c>
-      <c r="E746" t="n">
-        <v>11500</v>
-      </c>
-      <c r="F746" t="n">
-        <v>226.5256</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-26941.13468165002</v>
-      </c>
-      <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>11490</v>
-      </c>
-      <c r="C747" t="n">
-        <v>11480</v>
-      </c>
-      <c r="D747" t="n">
-        <v>11490</v>
-      </c>
-      <c r="E747" t="n">
-        <v>11480</v>
-      </c>
-      <c r="F747" t="n">
-        <v>35</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-26976.13468165002</v>
-      </c>
-      <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>11480</v>
-      </c>
-      <c r="C748" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D748" t="n">
-        <v>11480</v>
-      </c>
-      <c r="E748" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F748" t="n">
-        <v>38.7504</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-27014.88508165002</v>
-      </c>
-      <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>11480</v>
-      </c>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>11460</v>
-      </c>
-      <c r="C749" t="n">
-        <v>11460</v>
-      </c>
-      <c r="D749" t="n">
-        <v>11460</v>
-      </c>
-      <c r="E749" t="n">
-        <v>11460</v>
-      </c>
-      <c r="F749" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-27014.28508165002</v>
-      </c>
-      <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>11440</v>
-      </c>
-      <c r="C750" t="n">
-        <v>11440</v>
-      </c>
-      <c r="D750" t="n">
-        <v>11440</v>
-      </c>
-      <c r="E750" t="n">
-        <v>11440</v>
-      </c>
-      <c r="F750" t="n">
-        <v>6.7052</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-27020.99028165002</v>
-      </c>
-      <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>11460</v>
-      </c>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>11450</v>
-      </c>
-      <c r="C751" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D751" t="n">
-        <v>11450</v>
-      </c>
-      <c r="E751" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F751" t="n">
-        <v>0.4602</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-27020.53008165002</v>
-      </c>
-      <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>11440</v>
-      </c>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="C752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="D752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="E752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="F752" t="n">
-        <v>27.6998</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-27020.53008165002</v>
-      </c>
-      <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>11480</v>
-      </c>
-      <c r="C753" t="n">
-        <v>11480</v>
-      </c>
-      <c r="D753" t="n">
-        <v>11480</v>
-      </c>
-      <c r="E753" t="n">
-        <v>11440</v>
-      </c>
-      <c r="F753" t="n">
-        <v>193.2781</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-26827.25198165002</v>
-      </c>
-      <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25557,12 +25279,12 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>11480</v>
-      </c>
-      <c r="J754" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>11450</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25596,12 +25318,12 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>11430</v>
-      </c>
-      <c r="J755" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>11450</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25640,7 +25362,9 @@
       <c r="I756" t="n">
         <v>11430</v>
       </c>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>11450</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25679,7 +25403,9 @@
       <c r="I757" t="n">
         <v>11430</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>11450</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25718,7 +25444,9 @@
       <c r="I758" t="n">
         <v>11400</v>
       </c>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>11450</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25757,7 +25485,9 @@
       <c r="I759" t="n">
         <v>11400</v>
       </c>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>11450</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25796,7 +25526,9 @@
       <c r="I760" t="n">
         <v>11390</v>
       </c>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>11450</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25835,7 +25567,9 @@
       <c r="I761" t="n">
         <v>11400</v>
       </c>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>11450</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25874,7 +25608,9 @@
       <c r="I762" t="n">
         <v>11400</v>
       </c>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>11450</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25913,7 +25649,9 @@
       <c r="I763" t="n">
         <v>11430</v>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>11450</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25952,7 +25690,9 @@
       <c r="I764" t="n">
         <v>11380</v>
       </c>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>11450</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25991,7 +25731,9 @@
       <c r="I765" t="n">
         <v>11370</v>
       </c>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>11450</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,7 +25772,9 @@
       <c r="I766" t="n">
         <v>11370</v>
       </c>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>11450</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26069,7 +25813,9 @@
       <c r="I767" t="n">
         <v>11420</v>
       </c>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>11450</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26108,7 +25854,9 @@
       <c r="I768" t="n">
         <v>11420</v>
       </c>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>11450</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26147,7 +25895,9 @@
       <c r="I769" t="n">
         <v>11430</v>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>11450</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26186,7 +25936,9 @@
       <c r="I770" t="n">
         <v>11380</v>
       </c>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>11450</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26225,7 +25977,9 @@
       <c r="I771" t="n">
         <v>11460</v>
       </c>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>11450</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26264,7 +26018,9 @@
       <c r="I772" t="n">
         <v>11450</v>
       </c>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>11450</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26303,7 +26059,9 @@
       <c r="I773" t="n">
         <v>11460</v>
       </c>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>11450</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26337,12 +26095,12 @@
         <v>-28329.67918165002</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>11480</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>11450</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26376,12 +26134,12 @@
         <v>-28192.06208165002</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>11490</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>11450</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26415,12 +26173,12 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>11450</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26454,12 +26212,12 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>11430</v>
-      </c>
-      <c r="J777" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>11450</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26493,12 +26251,12 @@
         <v>-28471.19058165002</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>11430</v>
-      </c>
-      <c r="J778" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>11450</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26532,12 +26290,12 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>11420</v>
-      </c>
-      <c r="J779" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>11450</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26571,12 +26329,12 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>11430</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>11450</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26615,7 +26373,9 @@
       <c r="I781" t="n">
         <v>11430</v>
       </c>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>11450</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26654,7 +26414,9 @@
       <c r="I782" t="n">
         <v>11460</v>
       </c>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>11450</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26688,12 +26450,12 @@
         <v>-28508.13738165002</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>11430</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>11450</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26727,12 +26489,12 @@
         <v>-28174.84308165002</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>11440</v>
-      </c>
-      <c r="J784" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>11450</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26766,12 +26528,12 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="n">
         <v>11450</v>
       </c>
-      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26805,12 +26567,12 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J786" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>11450</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26844,12 +26606,12 @@
         <v>-28015.36598165002</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>11500</v>
-      </c>
-      <c r="J787" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>11450</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26883,12 +26645,12 @@
         <v>-27579.50308165002</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>11460</v>
-      </c>
-      <c r="J788" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>11450</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26922,12 +26684,12 @@
         <v>-27582.23128165002</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>11480</v>
-      </c>
-      <c r="J789" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>11450</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26961,12 +26723,12 @@
         <v>-27582.23128165002</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>11470</v>
-      </c>
-      <c r="J790" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>11450</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26978,6 +26740,6 @@
       <c r="M790" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest BTG.xlsx
+++ b/BackTest/2020-01-24 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>-439.1721933599998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-46.06509335999976</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-47.41309335999976</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-33.16329335999976</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58.50479335999977</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-36.08249335999977</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-34.08249335999977</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-142.9790933599998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-217.1278933599998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-452.5813933599998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-68.52639335999976</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-150.1920933599998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-121.1435933599998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-168.4829933599998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-181.6847933599998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-191.0442933599998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-207.8737933599998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4026.63789336</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-4313.55779336</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4324.11479336</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4318.49951841</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-4320.05621841</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4383.08061841</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-4378.54861841</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4335.40091841</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4268.08771841</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4336.08771841</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4336.03771841</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4119.95531841</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4081.67201841</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4026.855818409999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3520.50881841</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3424.785018409999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3481.08501841</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2907.271718409999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2912.271718409999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3236.671718409999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3279.524818409999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3277.469518409999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3873.196618409999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4198.03361841</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4405.40011841</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2730.385118409999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2741.550718409999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2532.050718409999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2571.747318409999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2560.36761841</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2565.36761841</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2638.99761841</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3066.91721841</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3072.91721841</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2714.44389023</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2411.66073669</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2511.64223669</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2547.05863669</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2544.09863669</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2785.42713669</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2516.45063669</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2268.95063669</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2314.12803669</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2480.254736689999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2978.984736689999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2977.414736689999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2962.729736689999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3023.111436689999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3010.466036689999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-3010.416036689999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-3020.038736689999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3217.149836689999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3486.046336689999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3459.098236689999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-16871.05839432</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-16884.99989432</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-16839.16789432</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-18134.84739432</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-18140.84739432</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-18223.84739432</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-18154.72849432</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-18158.66599432</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-17903.17599432</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-17866.34189432</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-17877.43219432</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-17877.94219432</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-18077.94219432</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-17992.98459431999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-18010.20269431999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-18924.83679432</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-19411.45318032</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-19421.45318032</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-17835.43976711</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-17828.43976711</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-17902.94716711</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-17732.94716711</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-17733.22166711</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-17738.06956711</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-17735.74096711</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-17768.13626711</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-17715.63626711</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-17859.25206711</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-17860.94896711</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-17289.70758658</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-16920.61568658</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-16600.77017258</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-16479.90267258</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-16511.63767258</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-16409.13767258</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-16546.14807258</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-16531.64807258</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-16005.97777258</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-15920.97777258</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-15925.97777258</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-15657.38397258</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-15747.83807258</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-16013.11597258</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-16071.19557257999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-15944.96167258</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-15929.96167258</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-15792.59467257999</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-16022.76517258</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-16370.85807257999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-16120.85807257999</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-16123.85807257999</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-16113.85807257999</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-16112.85807257999</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-16082.81797257999</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-16094.81797257999</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-16165.12337257999</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-16925.22837257999</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-16756.60467257999</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-16879.16417257999</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-16498.57747257999</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-16600.57747257999</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-16593.57747257999</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-16263.80967257999</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-16520.00647257999</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-16274.00077257999</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-16157.78707257999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-16162.78707257999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-16284.32966975999</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-16796.98336975999</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-16810.36546975999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-16790.01103642999</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-16793.49003642999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-16951.64123642999</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-17167.84553642999</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-17197.40883642999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -25201,14 +25201,10 @@
         <v>-27020.53008165002</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>11450</v>
-      </c>
-      <c r="J752" t="n">
-        <v>11450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
@@ -25243,9 +25239,7 @@
       <c r="I753" t="n">
         <v>11450</v>
       </c>
-      <c r="J753" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -25279,12 +25273,12 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>11480</v>
+      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,12 +25312,12 @@
         <v>-27073.84858165002</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>11430</v>
+      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25362,9 +25356,7 @@
       <c r="I756" t="n">
         <v>11430</v>
       </c>
-      <c r="J756" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25403,9 +25395,7 @@
       <c r="I757" t="n">
         <v>11430</v>
       </c>
-      <c r="J757" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25444,9 +25434,7 @@
       <c r="I758" t="n">
         <v>11400</v>
       </c>
-      <c r="J758" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25485,9 +25473,7 @@
       <c r="I759" t="n">
         <v>11400</v>
       </c>
-      <c r="J759" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25526,9 +25512,7 @@
       <c r="I760" t="n">
         <v>11390</v>
       </c>
-      <c r="J760" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25567,9 +25551,7 @@
       <c r="I761" t="n">
         <v>11400</v>
       </c>
-      <c r="J761" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25608,9 +25590,7 @@
       <c r="I762" t="n">
         <v>11400</v>
       </c>
-      <c r="J762" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25649,9 +25629,7 @@
       <c r="I763" t="n">
         <v>11430</v>
       </c>
-      <c r="J763" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25690,9 +25668,7 @@
       <c r="I764" t="n">
         <v>11380</v>
       </c>
-      <c r="J764" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25731,9 +25707,7 @@
       <c r="I765" t="n">
         <v>11370</v>
       </c>
-      <c r="J765" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25772,9 +25746,7 @@
       <c r="I766" t="n">
         <v>11370</v>
       </c>
-      <c r="J766" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25813,9 +25785,7 @@
       <c r="I767" t="n">
         <v>11420</v>
       </c>
-      <c r="J767" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25854,9 +25824,7 @@
       <c r="I768" t="n">
         <v>11420</v>
       </c>
-      <c r="J768" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25895,9 +25863,7 @@
       <c r="I769" t="n">
         <v>11430</v>
       </c>
-      <c r="J769" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25936,9 +25902,7 @@
       <c r="I770" t="n">
         <v>11380</v>
       </c>
-      <c r="J770" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25977,9 +25941,7 @@
       <c r="I771" t="n">
         <v>11460</v>
       </c>
-      <c r="J771" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26018,9 +25980,7 @@
       <c r="I772" t="n">
         <v>11450</v>
       </c>
-      <c r="J772" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26059,9 +26019,7 @@
       <c r="I773" t="n">
         <v>11460</v>
       </c>
-      <c r="J773" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26095,12 +26053,12 @@
         <v>-28329.67918165002</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>11480</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26134,12 +26092,12 @@
         <v>-28192.06208165002</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>11490</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26173,12 +26131,12 @@
         <v>-28470.04058165002</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>11500</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,9 +26173,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26254,9 +26210,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26290,12 +26244,12 @@
         <v>-28457.01488165002</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>11420</v>
+      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26332,9 +26286,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26373,9 +26325,7 @@
       <c r="I781" t="n">
         <v>11430</v>
       </c>
-      <c r="J781" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26414,9 +26364,7 @@
       <c r="I782" t="n">
         <v>11460</v>
       </c>
-      <c r="J782" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26450,12 +26398,12 @@
         <v>-28508.13738165002</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>11430</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26489,12 +26437,12 @@
         <v>-28174.84308165002</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>11440</v>
+      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26528,12 +26476,12 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
         <v>11450</v>
       </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26567,12 +26515,12 @@
         <v>-27909.59458165002</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>11500</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26606,12 +26554,12 @@
         <v>-28015.36598165002</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>11450</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>11500</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26648,9 +26596,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26687,9 +26633,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26726,9 +26670,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>11450</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
